--- a/tmp/cry/data/WeaponData_new.xlsx
+++ b/tmp/cry/data/WeaponData_new.xlsx
@@ -515,286 +515,286 @@
     <t>Weapon1</t>
   </si>
   <si>
-    <t>Weapon_011</t>
-  </si>
-  <si>
-    <t>WeaponBack011</t>
-  </si>
-  <si>
-    <t>Weapon01_Nor</t>
-  </si>
-  <si>
-    <t>Weapon01_Dis</t>
+    <t>weapon11</t>
+  </si>
+  <si>
+    <t>weaponBg11</t>
+  </si>
+  <si>
+    <t>weapon1_Nor</t>
+  </si>
+  <si>
+    <t>weapon1_Dis</t>
   </si>
   <si>
     <t>AttEffect01</t>
   </si>
   <si>
-    <t>ButtlEffect011</t>
+    <t>buttlEffect011</t>
   </si>
   <si>
     <t>bullet1.mp3</t>
   </si>
   <si>
-    <t>Weapon_012</t>
-  </si>
-  <si>
-    <t>WeaponBack012</t>
-  </si>
-  <si>
-    <t>ButtlEffect012</t>
-  </si>
-  <si>
-    <t>Weapon_013</t>
-  </si>
-  <si>
-    <t>WeaponBack013</t>
-  </si>
-  <si>
-    <t>ButtlEffect013</t>
+    <t>weapon12</t>
+  </si>
+  <si>
+    <t>weaponBg12</t>
+  </si>
+  <si>
+    <t>buttlEffect012</t>
+  </si>
+  <si>
+    <t>weapon13</t>
+  </si>
+  <si>
+    <t>weaponBg13</t>
+  </si>
+  <si>
+    <t>buttlEffect013</t>
   </si>
   <si>
     <t>Weapon2</t>
   </si>
   <si>
-    <t>Weapon_021</t>
-  </si>
-  <si>
-    <t>WeaponBack021</t>
-  </si>
-  <si>
-    <t>Weapon02_Nor</t>
-  </si>
-  <si>
-    <t>Weapon02_Dis</t>
+    <t>weapon21</t>
+  </si>
+  <si>
+    <t>weaponBg21</t>
+  </si>
+  <si>
+    <t>weapon2_Nor</t>
+  </si>
+  <si>
+    <t>weapon2_Dis</t>
   </si>
   <si>
     <t>AttEffect02</t>
   </si>
   <si>
-    <t>ButtlEffect021</t>
+    <t>buttlEffect021</t>
   </si>
   <si>
     <t>bullet2.mp3</t>
   </si>
   <si>
-    <t>Weapon_022</t>
-  </si>
-  <si>
-    <t>WeaponBack022</t>
-  </si>
-  <si>
-    <t>ButtlEffect022</t>
-  </si>
-  <si>
-    <t>Weapon_023</t>
-  </si>
-  <si>
-    <t>WeaponBack023</t>
-  </si>
-  <si>
-    <t>ButtlEffect023</t>
+    <t>weapon22</t>
+  </si>
+  <si>
+    <t>weaponBg22</t>
+  </si>
+  <si>
+    <t>buttlEffect022</t>
+  </si>
+  <si>
+    <t>weapon23</t>
+  </si>
+  <si>
+    <t>weaponBg23</t>
+  </si>
+  <si>
+    <t>buttlEffect023</t>
   </si>
   <si>
     <t>Weapon3</t>
   </si>
   <si>
-    <t>Weapon_031</t>
-  </si>
-  <si>
-    <t>WeaponBack031</t>
-  </si>
-  <si>
-    <t>Weapon03_Nor</t>
-  </si>
-  <si>
-    <t>Weapon03_Dis</t>
+    <t>weapon31</t>
+  </si>
+  <si>
+    <t>weaponBg31</t>
+  </si>
+  <si>
+    <t>weapon3_Nor</t>
+  </si>
+  <si>
+    <t>weapon3_Dis</t>
   </si>
   <si>
     <t>AttEffect03</t>
   </si>
   <si>
-    <t>ButtlEffect031</t>
+    <t>buttlEffect031</t>
   </si>
   <si>
     <t>bullet3.mp3</t>
   </si>
   <si>
-    <t>Weapon_032</t>
-  </si>
-  <si>
-    <t>WeaponBack032</t>
-  </si>
-  <si>
-    <t>ButtlEffect032</t>
-  </si>
-  <si>
-    <t>Weapon_033</t>
-  </si>
-  <si>
-    <t>WeaponBack033</t>
-  </si>
-  <si>
-    <t>ButtlEffect033</t>
+    <t>weapon32</t>
+  </si>
+  <si>
+    <t>weaponBg32</t>
+  </si>
+  <si>
+    <t>buttlEffect032</t>
+  </si>
+  <si>
+    <t>weapon33</t>
+  </si>
+  <si>
+    <t>weaponBg33</t>
+  </si>
+  <si>
+    <t>buttlEffect033</t>
   </si>
   <si>
     <t>Weapon4</t>
   </si>
   <si>
-    <t>Weapon_041</t>
-  </si>
-  <si>
-    <t>WeaponBack041</t>
-  </si>
-  <si>
-    <t>Weapon04_Nor</t>
-  </si>
-  <si>
-    <t>Weapon04_Dis</t>
+    <t>weapon41</t>
+  </si>
+  <si>
+    <t>weaponBg41</t>
+  </si>
+  <si>
+    <t>weapon4_Nor</t>
+  </si>
+  <si>
+    <t>weapon4_Dis</t>
   </si>
   <si>
     <t>AttEffect04</t>
   </si>
   <si>
-    <t>ButtlEffect041</t>
+    <t>buttlEffect041</t>
   </si>
   <si>
     <t>bullet4.mp3</t>
   </si>
   <si>
-    <t>Weapon_042</t>
-  </si>
-  <si>
-    <t>WeaponBack042</t>
-  </si>
-  <si>
-    <t>ButtlEffect042</t>
-  </si>
-  <si>
-    <t>Weapon_043</t>
-  </si>
-  <si>
-    <t>WeaponBack043</t>
-  </si>
-  <si>
-    <t>ButtlEffect043</t>
+    <t>weapon42</t>
+  </si>
+  <si>
+    <t>weaponBg42</t>
+  </si>
+  <si>
+    <t>buttlEffect042</t>
+  </si>
+  <si>
+    <t>weapon43</t>
+  </si>
+  <si>
+    <t>weaponBg43</t>
+  </si>
+  <si>
+    <t>buttlEffect043</t>
   </si>
   <si>
     <t>Weapon5</t>
   </si>
   <si>
-    <t>Weapon_051</t>
-  </si>
-  <si>
-    <t>WeaponBack051</t>
-  </si>
-  <si>
-    <t>Weapon05_Nor</t>
-  </si>
-  <si>
-    <t>Weapon05_Dis</t>
+    <t>weapon51</t>
+  </si>
+  <si>
+    <t>weaponBg51</t>
+  </si>
+  <si>
+    <t>weapon5_Nor</t>
+  </si>
+  <si>
+    <t>weapon5_Dis</t>
   </si>
   <si>
     <t>AttEffect05</t>
   </si>
   <si>
-    <t>ButtlEffect051</t>
+    <t>buttlEffect051</t>
   </si>
   <si>
     <t>bullet5.mp3</t>
   </si>
   <si>
-    <t>Weapon_052</t>
-  </si>
-  <si>
-    <t>WeaponBack052</t>
-  </si>
-  <si>
-    <t>ButtlEffect052</t>
-  </si>
-  <si>
-    <t>Weapon_053</t>
-  </si>
-  <si>
-    <t>WeaponBack053</t>
-  </si>
-  <si>
-    <t>ButtlEffect053</t>
+    <t>weapon52</t>
+  </si>
+  <si>
+    <t>weaponBg52</t>
+  </si>
+  <si>
+    <t>buttlEffect052</t>
+  </si>
+  <si>
+    <t>weapon53</t>
+  </si>
+  <si>
+    <t>weaponBg53</t>
+  </si>
+  <si>
+    <t>buttlEffect053</t>
   </si>
   <si>
     <t>Weapon6</t>
   </si>
   <si>
-    <t>Weapon_061</t>
-  </si>
-  <si>
-    <t>Weapon06_Nor</t>
-  </si>
-  <si>
-    <t>Weapon06_Dis</t>
+    <t>weapon61</t>
+  </si>
+  <si>
+    <t>weapon6_Nor</t>
+  </si>
+  <si>
+    <t>weapon6_Dis</t>
   </si>
   <si>
     <t>AttEffect06</t>
   </si>
   <si>
-    <t>ButtlEffect061</t>
+    <t>buttlEffect061</t>
   </si>
   <si>
     <t>bullet6.mp3</t>
   </si>
   <si>
-    <t>Weapon_062</t>
-  </si>
-  <si>
-    <t>ButtlEffect062</t>
-  </si>
-  <si>
-    <t>Weapon_063</t>
-  </si>
-  <si>
-    <t>ButtlEffect063</t>
+    <t>weapon62</t>
+  </si>
+  <si>
+    <t>buttlEffect062</t>
+  </si>
+  <si>
+    <t>weapon63</t>
+  </si>
+  <si>
+    <t>buttlEffect063</t>
   </si>
   <si>
     <t>Weapon7</t>
   </si>
   <si>
-    <t>Weapon_071</t>
-  </si>
-  <si>
-    <t>WeaponBack071</t>
-  </si>
-  <si>
-    <t>Weapon07_Nor</t>
-  </si>
-  <si>
-    <t>Weapon07_Dis</t>
+    <t>weapon71</t>
+  </si>
+  <si>
+    <t>weaponBg71</t>
+  </si>
+  <si>
+    <t>weapon7_Nor</t>
+  </si>
+  <si>
+    <t>weapon7_Dis</t>
   </si>
   <si>
     <t>AttEffect07</t>
   </si>
   <si>
-    <t>ButtlEffect071</t>
+    <t>buttlEffect071</t>
   </si>
   <si>
     <t>bullet7.mp3</t>
   </si>
   <si>
-    <t>Weapon_072</t>
-  </si>
-  <si>
-    <t>WeaponBack072</t>
-  </si>
-  <si>
-    <t>ButtlEffect072</t>
-  </si>
-  <si>
-    <t>Weapon_073</t>
-  </si>
-  <si>
-    <t>WeaponBack073</t>
-  </si>
-  <si>
-    <t>ButtlEffect073</t>
+    <t>weapon72</t>
+  </si>
+  <si>
+    <t>weaponBg72</t>
+  </si>
+  <si>
+    <t>buttlEffect072</t>
+  </si>
+  <si>
+    <t>weapon73</t>
+  </si>
+  <si>
+    <t>weaponBg73</t>
+  </si>
+  <si>
+    <t>buttlEffect073</t>
   </si>
 </sst>
 </file>
@@ -802,10 +802,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -824,7 +824,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,15 +851,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,53 +915,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,19 +944,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -986,7 +986,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,19 +1022,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,7 +1046,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,7 +1076,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,7 +1124,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,61 +1148,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,31 +1160,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,26 +1302,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1351,151 +1331,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2200,9 +2200,9 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="U23" sqref="B2:U23"/>
+      <selection pane="topRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3537,10 +3537,10 @@
       <c r="C23" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>113</v>
       </c>
       <c r="F23" s="8" t="s">

--- a/tmp/cry/data/WeaponData_new.xlsx
+++ b/tmp/cry/data/WeaponData_new.xlsx
@@ -527,7 +527,7 @@
     <t>weapon1_Dis</t>
   </si>
   <si>
-    <t>AttEffect01</t>
+    <t>attEffect01</t>
   </si>
   <si>
     <t>buttlEffect011</t>
@@ -569,7 +569,7 @@
     <t>weapon2_Dis</t>
   </si>
   <si>
-    <t>AttEffect02</t>
+    <t>attEffect02</t>
   </si>
   <si>
     <t>buttlEffect021</t>
@@ -611,7 +611,7 @@
     <t>weapon3_Dis</t>
   </si>
   <si>
-    <t>AttEffect03</t>
+    <t>attEffect03</t>
   </si>
   <si>
     <t>buttlEffect031</t>
@@ -653,7 +653,7 @@
     <t>weapon4_Dis</t>
   </si>
   <si>
-    <t>AttEffect04</t>
+    <t>attEffect04</t>
   </si>
   <si>
     <t>buttlEffect041</t>
@@ -695,7 +695,7 @@
     <t>weapon5_Dis</t>
   </si>
   <si>
-    <t>AttEffect05</t>
+    <t>attEffect05</t>
   </si>
   <si>
     <t>buttlEffect051</t>
@@ -734,7 +734,7 @@
     <t>weapon6_Dis</t>
   </si>
   <si>
-    <t>AttEffect06</t>
+    <t>attEffect06</t>
   </si>
   <si>
     <t>buttlEffect061</t>
@@ -770,7 +770,7 @@
     <t>weapon7_Dis</t>
   </si>
   <si>
-    <t>AttEffect07</t>
+    <t>attEffect07</t>
   </si>
   <si>
     <t>buttlEffect071</t>
@@ -802,10 +802,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -817,14 +817,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,90 +825,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,7 +847,99 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -952,11 +953,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -980,19 +980,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,19 +1010,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,91 +1028,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,13 +1058,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,13 +1124,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,11 +1254,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1274,15 +1289,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1317,21 +1323,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1339,6 +1330,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1357,10 +1357,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1369,133 +1369,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2202,7 +2202,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H24" sqref="H24"/>
+      <selection pane="topRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3530,7 +3530,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="2:21">
+    <row r="23" spans="2:21">
       <c r="B23" s="7">
         <v>1073</v>
       </c>

--- a/tmp/cry/data/WeaponData_new.xlsx
+++ b/tmp/cry/data/WeaponData_new.xlsx
@@ -106,7 +106,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-正常的按钮资源</t>
+禁用的按钮资源</t>
         </r>
       </text>
     </comment>
@@ -128,7 +128,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-禁用的按钮资源</t>
+怪物被子弹达到的特效资源名</t>
         </r>
       </text>
     </comment>
@@ -150,7 +150,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-怪物被子弹达到的特效资源名</t>
+下一等级的ID，如果值为&lt;=0,则为最高级</t>
         </r>
       </text>
     </comment>
@@ -172,7 +172,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-下一等级的ID，如果值为&lt;=0,则为最高级</t>
+攻击力</t>
         </r>
       </text>
     </comment>
@@ -194,7 +194,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-攻击力</t>
+建设或升级的花费</t>
         </r>
       </text>
     </comment>
@@ -216,7 +216,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-建设或升级的花费</t>
+回收的金钱</t>
         </r>
       </text>
     </comment>
@@ -238,7 +238,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-回收的金钱</t>
+攻击速度/攻击频率</t>
         </r>
       </text>
     </comment>
@@ -260,7 +260,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-攻击速度/攻击频率</t>
+攻击半径，以格子边长计算</t>
         </r>
       </text>
     </comment>
@@ -282,33 +282,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-攻击半径，以格子边长计算</t>
+子弹特效的资源名</t>
         </r>
       </text>
     </comment>
     <comment ref="O2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-子弹特效的资源名</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -335,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1">
+    <comment ref="P2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -357,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="1">
+    <comment ref="Q2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -379,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="1">
+    <comment ref="R2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -401,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="1">
+    <comment ref="S2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -423,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="1">
+    <comment ref="T2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -450,7 +428,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -464,9 +442,6 @@
     <t>backPic</t>
   </si>
   <si>
-    <t>normalBtn</t>
-  </si>
-  <si>
     <t>disbaleBtn</t>
   </si>
   <si>
@@ -521,9 +496,6 @@
     <t>weaponBg11</t>
   </si>
   <si>
-    <t>weapon1_Nor</t>
-  </si>
-  <si>
     <t>weapon1_Dis</t>
   </si>
   <si>
@@ -563,9 +535,6 @@
     <t>weaponBg21</t>
   </si>
   <si>
-    <t>weapon2_Nor</t>
-  </si>
-  <si>
     <t>weapon2_Dis</t>
   </si>
   <si>
@@ -605,9 +574,6 @@
     <t>weaponBg31</t>
   </si>
   <si>
-    <t>weapon3_Nor</t>
-  </si>
-  <si>
     <t>weapon3_Dis</t>
   </si>
   <si>
@@ -647,9 +613,6 @@
     <t>weaponBg41</t>
   </si>
   <si>
-    <t>weapon4_Nor</t>
-  </si>
-  <si>
     <t>weapon4_Dis</t>
   </si>
   <si>
@@ -689,9 +652,6 @@
     <t>weaponBg51</t>
   </si>
   <si>
-    <t>weapon5_Nor</t>
-  </si>
-  <si>
     <t>weapon5_Dis</t>
   </si>
   <si>
@@ -728,9 +688,6 @@
     <t>weapon61</t>
   </si>
   <si>
-    <t>weapon6_Nor</t>
-  </si>
-  <si>
     <t>weapon6_Dis</t>
   </si>
   <si>
@@ -762,9 +719,6 @@
   </si>
   <si>
     <t>weaponBg71</t>
-  </si>
-  <si>
-    <t>weapon7_Nor</t>
   </si>
   <si>
     <t>weapon7_Dis</t>
@@ -804,8 +758,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -816,10 +770,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -832,7 +832,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,25 +847,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -876,32 +867,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,36 +878,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,6 +895,22 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -980,7 +934,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,25 +970,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,13 +1006,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,7 +1042,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,19 +1084,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,85 +1108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,26 +1208,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1293,31 +1238,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1351,16 +1290,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1369,133 +1323,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1633,7 +1587,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190500" y="933450"/>
+          <a:off x="190500" y="923925"/>
           <a:ext cx="457200" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1677,7 +1631,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161925" y="1419225"/>
+          <a:off x="161925" y="1409700"/>
           <a:ext cx="523875" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1721,7 +1675,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="1971675"/>
+          <a:off x="209550" y="1962150"/>
           <a:ext cx="419100" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1765,7 +1719,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="2457450"/>
+          <a:off x="152400" y="2447925"/>
           <a:ext cx="533400" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1809,7 +1763,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="2962275"/>
+          <a:off x="152400" y="2952750"/>
           <a:ext cx="533400" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1853,7 +1807,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114300" y="3475990"/>
+          <a:off x="114300" y="3466465"/>
           <a:ext cx="590550" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1897,7 +1851,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="3990975"/>
+          <a:off x="142875" y="3981450"/>
           <a:ext cx="552450" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2197,12 +2151,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U32"/>
+  <dimension ref="A2:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M21" sqref="M21"/>
+      <selection pane="topRight" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2212,23 +2166,21 @@
     <col min="3" max="3" width="13.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="17.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="11" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.375" customWidth="1"/>
-    <col min="15" max="15" width="21.375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.5" customWidth="1"/>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
-    <col min="18" max="19" width="16.5" customWidth="1"/>
-    <col min="20" max="20" width="15.875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16" customWidth="1"/>
+    <col min="6" max="7" width="17.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="11" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.375" customWidth="1"/>
+    <col min="14" max="14" width="21.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="18" width="16.5" customWidth="1"/>
+    <col min="19" max="19" width="15.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
-    <row r="2" ht="57" customHeight="1" spans="2:21">
+    <row r="2" ht="57" customHeight="1" spans="2:20">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2283,1350 +2235,1284 @@
       <c r="S2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="9" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:20">
       <c r="B3" s="5">
         <v>1011</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6">
+        <v>1012</v>
+      </c>
+      <c r="I3" s="6">
+        <v>8</v>
+      </c>
+      <c r="J3" s="6">
+        <v>100</v>
+      </c>
+      <c r="K3" s="6">
+        <v>50</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <v>10</v>
+      </c>
+      <c r="S3" s="10">
+        <v>0</v>
+      </c>
+      <c r="T3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="6">
-        <v>1012</v>
-      </c>
-      <c r="J3" s="6">
-        <v>8</v>
-      </c>
-      <c r="K3" s="6">
-        <v>100</v>
-      </c>
-      <c r="L3" s="6">
-        <v>50</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="N3" s="6">
-        <v>2</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>10</v>
-      </c>
-      <c r="R3" s="6">
-        <v>0</v>
-      </c>
-      <c r="S3" s="6">
-        <v>10</v>
-      </c>
-      <c r="T3" s="10">
-        <v>0</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:20">
       <c r="B4" s="5">
         <v>1012</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1013</v>
+      </c>
+      <c r="I4" s="6">
+        <v>9</v>
+      </c>
+      <c r="J4" s="6">
+        <v>200</v>
+      </c>
+      <c r="K4" s="6">
+        <v>150</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="M4" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>10</v>
+      </c>
+      <c r="S4" s="10">
+        <v>0</v>
+      </c>
+      <c r="T4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="6">
-        <v>1013</v>
-      </c>
-      <c r="J4" s="6">
-        <v>9</v>
-      </c>
-      <c r="K4" s="6">
-        <v>200</v>
-      </c>
-      <c r="L4" s="6">
-        <v>150</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="N4" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>10</v>
-      </c>
-      <c r="R4" s="6">
-        <v>0</v>
-      </c>
-      <c r="S4" s="6">
-        <v>10</v>
-      </c>
-      <c r="T4" s="10">
-        <v>0</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:20">
       <c r="B5" s="5">
         <v>1013</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>25</v>
+      <c r="H5" s="6">
+        <v>0</v>
       </c>
       <c r="I5" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J5" s="6">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="K5" s="6">
         <v>300</v>
       </c>
       <c r="L5" s="6">
-        <v>300</v>
+        <v>0.55</v>
       </c>
       <c r="M5" s="6">
-        <v>0.55</v>
-      </c>
-      <c r="N5" s="6">
         <v>3</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>33</v>
+      <c r="N5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
       </c>
       <c r="P5" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
         <v>10</v>
       </c>
-      <c r="R5" s="6">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6">
-        <v>10</v>
-      </c>
-      <c r="T5" s="10">
-        <v>0</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>27</v>
+      <c r="S5" s="10">
+        <v>0</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:20">
       <c r="B6" s="5">
         <v>1021</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="6">
+        <v>1022</v>
+      </c>
+      <c r="I6" s="6">
+        <v>7</v>
+      </c>
+      <c r="J6" s="6">
+        <v>100</v>
+      </c>
+      <c r="K6" s="6">
+        <v>50</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="M6" s="6">
+        <v>2</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>10</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0</v>
+      </c>
+      <c r="T6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1022</v>
-      </c>
-      <c r="J6" s="6">
-        <v>7</v>
-      </c>
-      <c r="K6" s="6">
-        <v>100</v>
-      </c>
-      <c r="L6" s="6">
-        <v>50</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="N6" s="6">
-        <v>2</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>10</v>
-      </c>
-      <c r="R6" s="6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6">
-        <v>10</v>
-      </c>
-      <c r="T6" s="10">
-        <v>0</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:20">
       <c r="B7" s="5">
         <v>1022</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1023</v>
+      </c>
+      <c r="I7" s="6">
+        <v>9</v>
+      </c>
+      <c r="J7" s="6">
+        <v>200</v>
+      </c>
+      <c r="K7" s="6">
+        <v>150</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="M7" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>10</v>
+      </c>
+      <c r="S7" s="10">
+        <v>0</v>
+      </c>
+      <c r="T7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1023</v>
-      </c>
-      <c r="J7" s="6">
-        <v>9</v>
-      </c>
-      <c r="K7" s="6">
-        <v>200</v>
-      </c>
-      <c r="L7" s="6">
-        <v>150</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="N7" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>10</v>
-      </c>
-      <c r="R7" s="6">
-        <v>0</v>
-      </c>
-      <c r="S7" s="6">
-        <v>10</v>
-      </c>
-      <c r="T7" s="10">
-        <v>0</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:20">
       <c r="B8" s="5">
         <v>1023</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
       </c>
       <c r="I8" s="6">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="J8" s="6">
-        <v>9.5</v>
+        <v>300</v>
       </c>
       <c r="K8" s="6">
         <v>300</v>
       </c>
       <c r="L8" s="6">
-        <v>300</v>
+        <v>0.5</v>
       </c>
       <c r="M8" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="N8" s="6">
         <v>3</v>
       </c>
-      <c r="O8" s="6" t="s">
-        <v>47</v>
+      <c r="N8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
         <v>10</v>
       </c>
-      <c r="R8" s="6">
-        <v>0</v>
-      </c>
-      <c r="S8" s="6">
-        <v>10</v>
-      </c>
-      <c r="T8" s="10">
-        <v>0</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>41</v>
+      <c r="S8" s="10">
+        <v>0</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:20">
       <c r="B9" s="5">
         <v>1031</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="H9" s="6">
+        <v>1032</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2</v>
+      </c>
+      <c r="J9" s="6">
+        <v>120</v>
+      </c>
+      <c r="K9" s="6">
+        <v>60</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="M9" s="6">
+        <v>2.2</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="O9" s="6">
+        <v>2</v>
+      </c>
+      <c r="P9" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>3</v>
+      </c>
+      <c r="S9" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="T9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1032</v>
-      </c>
-      <c r="J9" s="6">
-        <v>2</v>
-      </c>
-      <c r="K9" s="6">
-        <v>120</v>
-      </c>
-      <c r="L9" s="6">
-        <v>60</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="N9" s="6">
-        <v>2.2</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>3</v>
-      </c>
-      <c r="R9" s="6">
-        <v>0</v>
-      </c>
-      <c r="S9" s="6">
-        <v>3</v>
-      </c>
-      <c r="T9" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:20">
       <c r="B10" s="5">
         <v>1032</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1033</v>
+      </c>
+      <c r="I10" s="6">
+        <v>2.2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>240</v>
+      </c>
+      <c r="K10" s="6">
+        <v>180</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="M10" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="6">
+        <v>2</v>
+      </c>
+      <c r="P10" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>3</v>
+      </c>
+      <c r="S10" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="T10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1033</v>
-      </c>
-      <c r="J10" s="6">
-        <v>2.2</v>
-      </c>
-      <c r="K10" s="6">
-        <v>240</v>
-      </c>
-      <c r="L10" s="6">
-        <v>180</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="N10" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="P10" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>3</v>
-      </c>
-      <c r="R10" s="6">
-        <v>0</v>
-      </c>
-      <c r="S10" s="6">
-        <v>3</v>
-      </c>
-      <c r="T10" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:20">
       <c r="B11" s="5">
         <v>1033</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
       </c>
       <c r="I11" s="6">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="J11" s="6">
-        <v>2.6</v>
+        <v>360</v>
       </c>
       <c r="K11" s="6">
         <v>360</v>
       </c>
       <c r="L11" s="6">
-        <v>360</v>
+        <v>0.5</v>
       </c>
       <c r="M11" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="N11" s="6">
         <v>3.2</v>
       </c>
-      <c r="O11" s="6" t="s">
-        <v>61</v>
+      <c r="N11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="6">
+        <v>2</v>
       </c>
       <c r="P11" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
         <v>3</v>
       </c>
-      <c r="R11" s="6">
-        <v>0</v>
-      </c>
-      <c r="S11" s="6">
-        <v>3</v>
-      </c>
-      <c r="T11" s="10">
+      <c r="S11" s="10">
         <v>1.8</v>
       </c>
-      <c r="U11" s="11" t="s">
-        <v>55</v>
+      <c r="T11" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:20">
       <c r="B12" s="5">
         <v>1041</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="H12" s="6">
+        <v>1042</v>
+      </c>
+      <c r="I12" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="J12" s="6">
+        <v>120</v>
+      </c>
+      <c r="K12" s="6">
+        <v>60</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="M12" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="O12" s="6">
+        <v>3</v>
+      </c>
+      <c r="P12" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>10</v>
+      </c>
+      <c r="S12" s="10">
+        <v>0</v>
+      </c>
+      <c r="T12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1042</v>
-      </c>
-      <c r="J12" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="K12" s="6">
-        <v>120</v>
-      </c>
-      <c r="L12" s="6">
-        <v>60</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="N12" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>10</v>
-      </c>
-      <c r="R12" s="6">
-        <v>0</v>
-      </c>
-      <c r="S12" s="6">
-        <v>10</v>
-      </c>
-      <c r="T12" s="10">
-        <v>0</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>69</v>
-      </c>
     </row>
-    <row r="13" spans="2:21">
+    <row r="13" spans="2:20">
       <c r="B13" s="5">
         <v>1042</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="6">
+        <v>1043</v>
+      </c>
+      <c r="I13" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="J13" s="6">
+        <v>240</v>
+      </c>
+      <c r="K13" s="6">
+        <v>180</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="6">
+        <v>3</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="6">
-        <v>1043</v>
-      </c>
-      <c r="J13" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="K13" s="6">
-        <v>240</v>
-      </c>
-      <c r="L13" s="6">
-        <v>180</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="N13" s="6">
+      <c r="O13" s="6">
         <v>3</v>
       </c>
-      <c r="O13" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="P13" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
         <v>10</v>
       </c>
-      <c r="R13" s="6">
-        <v>0</v>
-      </c>
-      <c r="S13" s="6">
-        <v>10</v>
-      </c>
-      <c r="T13" s="10">
-        <v>0</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>69</v>
+      <c r="S13" s="10">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:20">
       <c r="B14" s="5">
         <v>1043</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>67</v>
+      <c r="H14" s="6">
+        <v>0</v>
       </c>
       <c r="I14" s="6">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="J14" s="6">
-        <v>6.8</v>
+        <v>360</v>
       </c>
       <c r="K14" s="6">
         <v>360</v>
       </c>
       <c r="L14" s="6">
-        <v>360</v>
+        <v>0.2</v>
       </c>
       <c r="M14" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="N14" s="6">
         <v>3.5</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>75</v>
+      <c r="N14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="6">
+        <v>3</v>
       </c>
       <c r="P14" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
         <v>10</v>
       </c>
-      <c r="R14" s="6">
-        <v>0</v>
-      </c>
-      <c r="S14" s="6">
-        <v>10</v>
-      </c>
-      <c r="T14" s="10">
-        <v>0</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>69</v>
+      <c r="S14" s="10">
+        <v>0</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="2:20">
       <c r="B15" s="5">
         <v>1051</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1052</v>
+      </c>
+      <c r="I15" s="6">
+        <v>9</v>
+      </c>
+      <c r="J15" s="6">
+        <v>120</v>
+      </c>
+      <c r="K15" s="6">
+        <v>60</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="M15" s="6">
+        <v>2.2</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>10</v>
+      </c>
+      <c r="S15" s="10">
+        <v>0</v>
+      </c>
+      <c r="T15" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1052</v>
-      </c>
-      <c r="J15" s="6">
-        <v>9</v>
-      </c>
-      <c r="K15" s="6">
-        <v>120</v>
-      </c>
-      <c r="L15" s="6">
-        <v>60</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="N15" s="6">
-        <v>2.2</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>10</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6">
-        <v>10</v>
-      </c>
-      <c r="T15" s="10">
-        <v>0</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>83</v>
-      </c>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:20">
       <c r="B16" s="5">
         <v>1052</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1053</v>
+      </c>
+      <c r="I16" s="6">
+        <v>10</v>
+      </c>
+      <c r="J16" s="6">
+        <v>240</v>
+      </c>
+      <c r="K16" s="6">
+        <v>180</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="M16" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="N16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="6">
-        <v>1053</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
         <v>10</v>
       </c>
-      <c r="K16" s="6">
-        <v>240</v>
-      </c>
-      <c r="L16" s="6">
-        <v>180</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="N16" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
       <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
         <v>10</v>
       </c>
-      <c r="R16" s="6">
-        <v>0</v>
-      </c>
-      <c r="S16" s="6">
-        <v>10</v>
-      </c>
-      <c r="T16" s="10">
-        <v>0</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>83</v>
+      <c r="S16" s="10">
+        <v>0</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="17" spans="2:21">
+    <row r="17" spans="2:20">
       <c r="B17" s="5">
         <v>1053</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
       </c>
       <c r="I17" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J17" s="6">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="K17" s="6">
         <v>360</v>
       </c>
       <c r="L17" s="6">
-        <v>360</v>
+        <v>0.5</v>
       </c>
       <c r="M17" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="N17" s="6">
         <v>3.2</v>
       </c>
-      <c r="O17" s="6" t="s">
-        <v>89</v>
+      <c r="N17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
         <v>10</v>
       </c>
-      <c r="R17" s="6">
-        <v>0</v>
-      </c>
-      <c r="S17" s="6">
-        <v>10</v>
-      </c>
-      <c r="T17" s="10">
-        <v>0</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>83</v>
+      <c r="S17" s="10">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="18" spans="2:21">
+    <row r="18" spans="2:20">
       <c r="B18" s="5">
         <v>1061</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1062</v>
       </c>
       <c r="I18" s="6">
-        <v>1062</v>
+        <v>7</v>
       </c>
       <c r="J18" s="6">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="K18" s="6">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="L18" s="6">
-        <v>60</v>
+        <v>0.8</v>
       </c>
       <c r="M18" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="N18" s="6">
         <v>2.4</v>
       </c>
-      <c r="O18" s="6" t="s">
-        <v>95</v>
+      <c r="N18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
         <v>8</v>
       </c>
-      <c r="R18" s="6">
-        <v>0</v>
-      </c>
-      <c r="S18" s="6">
-        <v>8</v>
-      </c>
-      <c r="T18" s="10">
+      <c r="S18" s="10">
         <v>1.2</v>
       </c>
-      <c r="U18" s="11" t="s">
-        <v>96</v>
+      <c r="T18" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="19" spans="2:21">
+    <row r="19" spans="2:20">
       <c r="B19" s="5">
         <v>1062</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1063</v>
       </c>
       <c r="I19" s="6">
-        <v>1063</v>
+        <v>8</v>
       </c>
       <c r="J19" s="6">
+        <v>240</v>
+      </c>
+      <c r="K19" s="6">
+        <v>180</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="M19" s="6">
+        <v>3</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
         <v>8</v>
       </c>
-      <c r="K19" s="6">
-        <v>240</v>
-      </c>
-      <c r="L19" s="6">
-        <v>180</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="N19" s="6">
-        <v>3</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="P19" s="6">
-        <v>0</v>
-      </c>
       <c r="Q19" s="6">
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
         <v>8</v>
       </c>
-      <c r="R19" s="6">
-        <v>0</v>
-      </c>
-      <c r="S19" s="6">
-        <v>8</v>
-      </c>
-      <c r="T19" s="10">
+      <c r="S19" s="10">
         <v>1.4</v>
       </c>
-      <c r="U19" s="11" t="s">
-        <v>96</v>
+      <c r="T19" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="20" spans="2:21">
+    <row r="20" spans="2:20">
       <c r="B20" s="5">
         <v>1063</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
       </c>
       <c r="I20" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J20" s="6">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="K20" s="6">
         <v>360</v>
       </c>
       <c r="L20" s="6">
-        <v>360</v>
+        <v>0.55</v>
       </c>
       <c r="M20" s="6">
-        <v>0.55</v>
-      </c>
-      <c r="N20" s="6">
         <v>3.6</v>
       </c>
-      <c r="O20" s="6" t="s">
-        <v>100</v>
+      <c r="N20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6">
         <v>8</v>
       </c>
-      <c r="R20" s="6">
-        <v>0</v>
-      </c>
-      <c r="S20" s="6">
-        <v>8</v>
-      </c>
-      <c r="T20" s="10">
+      <c r="S20" s="10">
         <v>1.8</v>
       </c>
-      <c r="U20" s="11" t="s">
-        <v>96</v>
+      <c r="T20" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="21" spans="2:21">
+    <row r="21" spans="2:20">
       <c r="B21" s="5">
         <v>1071</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1072</v>
       </c>
       <c r="I21" s="6">
-        <v>1072</v>
+        <v>10</v>
       </c>
       <c r="J21" s="6">
+        <v>160</v>
+      </c>
+      <c r="K21" s="6">
+        <v>80</v>
+      </c>
+      <c r="L21" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="M21" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O21" s="6">
+        <v>5</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>20</v>
+      </c>
+      <c r="R21" s="6">
         <v>10</v>
       </c>
-      <c r="K21" s="6">
-        <v>160</v>
-      </c>
-      <c r="L21" s="6">
-        <v>80</v>
-      </c>
-      <c r="M21" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="N21" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="P21" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0</v>
-      </c>
-      <c r="R21" s="6">
-        <v>20</v>
-      </c>
-      <c r="S21" s="6">
-        <v>10</v>
-      </c>
-      <c r="T21" s="10">
+      <c r="S21" s="10">
         <v>1.5</v>
       </c>
-      <c r="U21" s="11" t="s">
-        <v>108</v>
+      <c r="T21" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:21">
+    <row r="22" spans="2:20">
       <c r="B22" s="5">
         <v>1072</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1073</v>
       </c>
       <c r="I22" s="6">
-        <v>1073</v>
+        <v>12</v>
       </c>
       <c r="J22" s="6">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="K22" s="6">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="L22" s="6">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="M22" s="6">
-        <v>1</v>
-      </c>
-      <c r="N22" s="6">
         <v>3</v>
       </c>
-      <c r="O22" s="6" t="s">
-        <v>111</v>
+      <c r="N22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O22" s="6">
+        <v>5</v>
       </c>
       <c r="P22" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R22" s="6">
-        <v>20</v>
-      </c>
-      <c r="S22" s="6">
         <v>10</v>
       </c>
-      <c r="T22" s="10">
+      <c r="S22" s="10">
         <v>2</v>
       </c>
-      <c r="U22" s="11" t="s">
-        <v>108</v>
+      <c r="T22" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:21">
+    <row r="23" spans="2:20">
       <c r="B23" s="7">
         <v>1073</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
       </c>
       <c r="I23" s="8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J23" s="8">
-        <v>14</v>
+        <v>480</v>
       </c>
       <c r="K23" s="8">
         <v>480</v>
       </c>
       <c r="L23" s="8">
-        <v>480</v>
+        <v>0.8</v>
       </c>
       <c r="M23" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="N23" s="8">
         <v>3.5</v>
       </c>
-      <c r="O23" s="8" t="s">
-        <v>114</v>
+      <c r="N23" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" s="8">
+        <v>5</v>
       </c>
       <c r="P23" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R23" s="8">
-        <v>20</v>
-      </c>
-      <c r="S23" s="8">
         <v>10</v>
       </c>
-      <c r="T23" s="12">
+      <c r="S23" s="12">
         <v>2.5</v>
       </c>
-      <c r="U23" s="13" t="s">
-        <v>108</v>
+      <c r="T23" s="13" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="24" spans="14:16">
-      <c r="N24" s="2"/>
-      <c r="P24" s="2"/>
+    <row r="24" spans="13:15">
+      <c r="M24" s="2"/>
+      <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="14:16">
-      <c r="N25" s="2"/>
-      <c r="P25" s="2"/>
+    <row r="25" spans="13:15">
+      <c r="M25" s="2"/>
+      <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="14:16">
-      <c r="N26" s="2"/>
-      <c r="P26" s="2"/>
+    <row r="26" spans="13:15">
+      <c r="M26" s="2"/>
+      <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="14:16">
-      <c r="N27" s="2"/>
-      <c r="P27" s="2"/>
+    <row r="27" spans="13:15">
+      <c r="M27" s="2"/>
+      <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="14:16">
-      <c r="N28" s="2"/>
-      <c r="P28" s="2"/>
+    <row r="28" spans="13:15">
+      <c r="M28" s="2"/>
+      <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="14:16">
-      <c r="N29" s="2"/>
-      <c r="P29" s="2"/>
+    <row r="29" spans="13:15">
+      <c r="M29" s="2"/>
+      <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="14:16">
-      <c r="N30" s="2"/>
-      <c r="P30" s="2"/>
+    <row r="30" spans="13:15">
+      <c r="M30" s="2"/>
+      <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="14:16">
-      <c r="N31" s="2"/>
-      <c r="P31" s="2"/>
+    <row r="31" spans="13:15">
+      <c r="M31" s="2"/>
+      <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="14:16">
-      <c r="N32" s="2"/>
-      <c r="P32" s="2"/>
+    <row r="32" spans="13:15">
+      <c r="M32" s="2"/>
+      <c r="O32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/tmp/cry/data/WeaponData_new.xlsx
+++ b/tmp/cry/data/WeaponData_new.xlsx
@@ -40,11 +40,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-名称</t>
+(资源名)</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>daya:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-(资源名)</t>
+背景图片资源名</t>
         </r>
       </text>
     </comment>
@@ -84,7 +84,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-背景图片资源名</t>
+怪物被子弹达到的特效资源名</t>
         </r>
       </text>
     </comment>
@@ -106,7 +106,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-禁用的按钮资源</t>
+下一等级的ID，如果值为&lt;=0,则为最高级</t>
         </r>
       </text>
     </comment>
@@ -128,7 +128,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-怪物被子弹达到的特效资源名</t>
+攻击力</t>
         </r>
       </text>
     </comment>
@@ -150,7 +150,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-下一等级的ID，如果值为&lt;=0,则为最高级</t>
+建设或升级的花费</t>
         </r>
       </text>
     </comment>
@@ -172,7 +172,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-攻击力</t>
+回收的金钱</t>
         </r>
       </text>
     </comment>
@@ -194,7 +194,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-建设或升级的花费</t>
+攻击速度/攻击频率</t>
         </r>
       </text>
     </comment>
@@ -216,7 +216,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-回收的金钱</t>
+攻击半径，以格子边长计算</t>
         </r>
       </text>
     </comment>
@@ -238,7 +238,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-攻击速度/攻击频率</t>
+子弹特效的资源名</t>
         </r>
       </text>
     </comment>
@@ -260,7 +260,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-攻击半径，以格子边长计算</t>
+子弹类型：
+0，普通子弹；
+1，激光圈，放大；
+2，激光束，跟随；
+3，导弹，匀加速，跟随；</t>
         </r>
       </text>
     </comment>
@@ -282,7 +286,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-子弹特效的资源名</t>
+子弹初始速度</t>
         </r>
       </text>
     </comment>
@@ -304,12 +308,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-子弹类型：
-0，普通子弹；
-1，激光束，穿透；
-2，激光圈，放大；
-3，激光束，跟随；
-4，导弹，匀加速，跟随；</t>
+子弹的加速度</t>
         </r>
       </text>
     </comment>
@@ -331,7 +330,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-子弹初始速度</t>
+子弹的最大速度</t>
         </r>
       </text>
     </comment>
@@ -353,55 +352,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-子弹的加速度</t>
+子弹攻击半径，范围攻击的子弹才有的数据</t>
         </r>
       </text>
     </comment>
     <comment ref="R2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-子弹的最大速度</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-子弹攻击半径，范围攻击的子弹才有的数据</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -428,23 +383,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>assertName</t>
   </si>
   <si>
     <t>backPic</t>
   </si>
   <si>
-    <t>disbaleBtn</t>
-  </si>
-  <si>
     <t>attEffect</t>
   </si>
   <si>
@@ -466,43 +415,37 @@
     <t>attRadius</t>
   </si>
   <si>
-    <t>buttleEffect</t>
-  </si>
-  <si>
-    <t>buttleType</t>
-  </si>
-  <si>
-    <t>buttleSpeed</t>
-  </si>
-  <si>
-    <t>buttleAccSpeed</t>
-  </si>
-  <si>
-    <t>buttleMaxSpeed</t>
-  </si>
-  <si>
-    <t>buttleRadius</t>
+    <t>bulletEffect</t>
+  </si>
+  <si>
+    <t>bulletType</t>
+  </si>
+  <si>
+    <t>bulletSpeed</t>
+  </si>
+  <si>
+    <t>bulletAccSpeed</t>
+  </si>
+  <si>
+    <t>bulletMaxSpeed</t>
+  </si>
+  <si>
+    <t>bulletRadius</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>Weapon1</t>
-  </si>
-  <si>
     <t>weapon11</t>
   </si>
   <si>
     <t>weaponBg11</t>
   </si>
   <si>
-    <t>weapon1_Dis</t>
-  </si>
-  <si>
     <t>attEffect01</t>
   </si>
   <si>
-    <t>buttlEffect011</t>
+    <t>bulletEffect011</t>
   </si>
   <si>
     <t>bullet1.mp3</t>
@@ -514,7 +457,7 @@
     <t>weaponBg12</t>
   </si>
   <si>
-    <t>buttlEffect012</t>
+    <t>bulletEffect012</t>
   </si>
   <si>
     <t>weapon13</t>
@@ -523,10 +466,7 @@
     <t>weaponBg13</t>
   </si>
   <si>
-    <t>buttlEffect013</t>
-  </si>
-  <si>
-    <t>Weapon2</t>
+    <t>bulletEffect013</t>
   </si>
   <si>
     <t>weapon21</t>
@@ -535,13 +475,10 @@
     <t>weaponBg21</t>
   </si>
   <si>
-    <t>weapon2_Dis</t>
-  </si>
-  <si>
     <t>attEffect02</t>
   </si>
   <si>
-    <t>buttlEffect021</t>
+    <t>bulletEffect021</t>
   </si>
   <si>
     <t>bullet2.mp3</t>
@@ -553,7 +490,7 @@
     <t>weaponBg22</t>
   </si>
   <si>
-    <t>buttlEffect022</t>
+    <t>bulletEffect022</t>
   </si>
   <si>
     <t>weapon23</t>
@@ -562,10 +499,7 @@
     <t>weaponBg23</t>
   </si>
   <si>
-    <t>buttlEffect023</t>
-  </si>
-  <si>
-    <t>Weapon3</t>
+    <t>bulletEffect023</t>
   </si>
   <si>
     <t>weapon31</t>
@@ -574,13 +508,10 @@
     <t>weaponBg31</t>
   </si>
   <si>
-    <t>weapon3_Dis</t>
-  </si>
-  <si>
     <t>attEffect03</t>
   </si>
   <si>
-    <t>buttlEffect031</t>
+    <t>bulletEffect031</t>
   </si>
   <si>
     <t>bullet3.mp3</t>
@@ -592,7 +523,7 @@
     <t>weaponBg32</t>
   </si>
   <si>
-    <t>buttlEffect032</t>
+    <t>bulletEffect032</t>
   </si>
   <si>
     <t>weapon33</t>
@@ -601,10 +532,7 @@
     <t>weaponBg33</t>
   </si>
   <si>
-    <t>buttlEffect033</t>
-  </si>
-  <si>
-    <t>Weapon4</t>
+    <t>bulletEffect033</t>
   </si>
   <si>
     <t>weapon41</t>
@@ -613,13 +541,10 @@
     <t>weaponBg41</t>
   </si>
   <si>
-    <t>weapon4_Dis</t>
-  </si>
-  <si>
     <t>attEffect04</t>
   </si>
   <si>
-    <t>buttlEffect041</t>
+    <t>bulletEffect041</t>
   </si>
   <si>
     <t>bullet4.mp3</t>
@@ -631,7 +556,7 @@
     <t>weaponBg42</t>
   </si>
   <si>
-    <t>buttlEffect042</t>
+    <t>bulletEffect042</t>
   </si>
   <si>
     <t>weapon43</t>
@@ -640,10 +565,7 @@
     <t>weaponBg43</t>
   </si>
   <si>
-    <t>buttlEffect043</t>
-  </si>
-  <si>
-    <t>Weapon5</t>
+    <t>bulletEffect043</t>
   </si>
   <si>
     <t>weapon51</t>
@@ -652,13 +574,10 @@
     <t>weaponBg51</t>
   </si>
   <si>
-    <t>weapon5_Dis</t>
-  </si>
-  <si>
     <t>attEffect05</t>
   </si>
   <si>
-    <t>buttlEffect051</t>
+    <t>bulletEffect051</t>
   </si>
   <si>
     <t>bullet5.mp3</t>
@@ -670,7 +589,7 @@
     <t>weaponBg52</t>
   </si>
   <si>
-    <t>buttlEffect052</t>
+    <t>bulletEffect052</t>
   </si>
   <si>
     <t>weapon53</t>
@@ -679,22 +598,16 @@
     <t>weaponBg53</t>
   </si>
   <si>
-    <t>buttlEffect053</t>
-  </si>
-  <si>
-    <t>Weapon6</t>
+    <t>bulletEffect053</t>
   </si>
   <si>
     <t>weapon61</t>
   </si>
   <si>
-    <t>weapon6_Dis</t>
-  </si>
-  <si>
     <t>attEffect06</t>
   </si>
   <si>
-    <t>buttlEffect061</t>
+    <t>bulletEffect061</t>
   </si>
   <si>
     <t>bullet6.mp3</t>
@@ -703,16 +616,13 @@
     <t>weapon62</t>
   </si>
   <si>
-    <t>buttlEffect062</t>
+    <t>bulletEffect062</t>
   </si>
   <si>
     <t>weapon63</t>
   </si>
   <si>
-    <t>buttlEffect063</t>
-  </si>
-  <si>
-    <t>Weapon7</t>
+    <t>bulletEffect063</t>
   </si>
   <si>
     <t>weapon71</t>
@@ -721,13 +631,10 @@
     <t>weaponBg71</t>
   </si>
   <si>
-    <t>weapon7_Dis</t>
-  </si>
-  <si>
     <t>attEffect07</t>
   </si>
   <si>
-    <t>buttlEffect071</t>
+    <t>bulletEffect071</t>
   </si>
   <si>
     <t>bullet7.mp3</t>
@@ -739,7 +646,7 @@
     <t>weaponBg72</t>
   </si>
   <si>
-    <t>buttlEffect072</t>
+    <t>bulletEffect072</t>
   </si>
   <si>
     <t>weapon73</t>
@@ -748,7 +655,7 @@
     <t>weaponBg73</t>
   </si>
   <si>
-    <t>buttlEffect073</t>
+    <t>bulletEffect073</t>
   </si>
 </sst>
 </file>
@@ -756,10 +663,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -767,74 +674,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -853,8 +692,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,9 +746,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,7 +793,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,19 +806,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -934,7 +841,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,7 +853,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,37 +877,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,48 +907,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1060,7 +919,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,7 +991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,31 +1009,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,17 +1115,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,15 +1150,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1264,11 +1171,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1284,24 +1204,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1311,10 +1218,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1323,19 +1230,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1344,112 +1251,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1587,7 +1494,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190500" y="923925"/>
+          <a:off x="190500" y="933450"/>
           <a:ext cx="457200" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1631,7 +1538,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161925" y="1409700"/>
+          <a:off x="161925" y="1419225"/>
           <a:ext cx="523875" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1675,7 +1582,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="1962150"/>
+          <a:off x="209550" y="1971675"/>
           <a:ext cx="419100" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1719,7 +1626,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="2447925"/>
+          <a:off x="152400" y="2457450"/>
           <a:ext cx="533400" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1763,7 +1670,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="2952750"/>
+          <a:off x="152400" y="2962275"/>
           <a:ext cx="533400" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1807,7 +1714,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114300" y="3466465"/>
+          <a:off x="114300" y="3475990"/>
           <a:ext cx="590550" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1851,7 +1758,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="3981450"/>
+          <a:off x="142875" y="3990975"/>
           <a:ext cx="552450" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2151,36 +2058,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:T32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N30" sqref="N30"/>
+      <selection pane="topRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="2" customWidth="1"/>
-    <col min="6" max="7" width="17.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="21.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.5" customWidth="1"/>
-    <col min="16" max="16" width="13.5" customWidth="1"/>
-    <col min="17" max="18" width="16.5" customWidth="1"/>
-    <col min="19" max="19" width="15.875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="11" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="21.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="16" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="15.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="57" customHeight="1" spans="2:20">
+    <row r="1" ht="14.25"/>
+    <row r="2" ht="57" customHeight="1" spans="2:18">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2229,55 +2136,49 @@
       <c r="Q2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:18">
       <c r="B3" s="5">
         <v>1011</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6">
+        <v>1012</v>
+      </c>
+      <c r="G3" s="6">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6">
+        <v>100</v>
+      </c>
+      <c r="I3" s="6">
+        <v>50</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="K3" s="6">
+        <v>2</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1012</v>
-      </c>
-      <c r="I3" s="6">
-        <v>8</v>
-      </c>
-      <c r="J3" s="6">
-        <v>100</v>
-      </c>
-      <c r="K3" s="6">
-        <v>50</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0.9</v>
-      </c>
       <c r="M3" s="6">
-        <v>2</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>10</v>
       </c>
       <c r="O3" s="6">
         <v>0</v>
@@ -2285,58 +2186,52 @@
       <c r="P3" s="6">
         <v>10</v>
       </c>
-      <c r="Q3" s="6">
-        <v>0</v>
-      </c>
-      <c r="R3" s="6">
-        <v>10</v>
-      </c>
-      <c r="S3" s="10">
-        <v>0</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>25</v>
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:18">
       <c r="B4" s="5">
         <v>1012</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>23</v>
+      <c r="F4" s="6">
+        <v>1013</v>
+      </c>
+      <c r="G4" s="6">
+        <v>9</v>
       </c>
       <c r="H4" s="6">
-        <v>1013</v>
+        <v>200</v>
       </c>
       <c r="I4" s="6">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="J4" s="6">
-        <v>200</v>
+        <v>0.75</v>
       </c>
       <c r="K4" s="6">
-        <v>150</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.75</v>
+        <v>2.5</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="M4" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>10</v>
       </c>
       <c r="O4" s="6">
         <v>0</v>
@@ -2344,58 +2239,52 @@
       <c r="P4" s="6">
         <v>10</v>
       </c>
-      <c r="Q4" s="6">
-        <v>0</v>
-      </c>
-      <c r="R4" s="6">
-        <v>10</v>
-      </c>
-      <c r="S4" s="10">
-        <v>0</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>25</v>
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:18">
       <c r="B5" s="5">
         <v>1013</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>23</v>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>10</v>
       </c>
       <c r="H5" s="6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I5" s="6">
+        <v>300</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.55</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
         <v>10</v>
-      </c>
-      <c r="J5" s="6">
-        <v>300</v>
-      </c>
-      <c r="K5" s="6">
-        <v>300</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0.55</v>
-      </c>
-      <c r="M5" s="6">
-        <v>3</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="O5" s="6">
         <v>0</v>
@@ -2403,58 +2292,52 @@
       <c r="P5" s="6">
         <v>10</v>
       </c>
-      <c r="Q5" s="6">
-        <v>0</v>
-      </c>
-      <c r="R5" s="6">
-        <v>10</v>
-      </c>
-      <c r="S5" s="10">
-        <v>0</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>25</v>
+      <c r="Q5" s="10">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:18">
       <c r="B6" s="5">
         <v>1021</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1022</v>
+      </c>
+      <c r="G6" s="6">
+        <v>7</v>
       </c>
       <c r="H6" s="6">
-        <v>1022</v>
+        <v>100</v>
       </c>
       <c r="I6" s="6">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J6" s="6">
-        <v>100</v>
+        <v>0.85</v>
       </c>
       <c r="K6" s="6">
-        <v>50</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0.85</v>
+        <v>2</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M6" s="6">
-        <v>2</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>10</v>
       </c>
       <c r="O6" s="6">
         <v>0</v>
@@ -2462,58 +2345,52 @@
       <c r="P6" s="6">
         <v>10</v>
       </c>
-      <c r="Q6" s="6">
-        <v>0</v>
-      </c>
-      <c r="R6" s="6">
-        <v>10</v>
-      </c>
-      <c r="S6" s="10">
-        <v>0</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>38</v>
+      <c r="Q6" s="10">
+        <v>0</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:18">
       <c r="B7" s="5">
         <v>1022</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1023</v>
+      </c>
+      <c r="G7" s="6">
+        <v>9</v>
+      </c>
+      <c r="H7" s="6">
+        <v>200</v>
+      </c>
+      <c r="I7" s="6">
+        <v>150</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="K7" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1023</v>
-      </c>
-      <c r="I7" s="6">
-        <v>9</v>
-      </c>
-      <c r="J7" s="6">
-        <v>200</v>
-      </c>
-      <c r="K7" s="6">
-        <v>150</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0.7</v>
-      </c>
       <c r="M7" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>10</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -2521,58 +2398,52 @@
       <c r="P7" s="6">
         <v>10</v>
       </c>
-      <c r="Q7" s="6">
-        <v>0</v>
-      </c>
-      <c r="R7" s="6">
-        <v>10</v>
-      </c>
-      <c r="S7" s="10">
-        <v>0</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>38</v>
+      <c r="Q7" s="10">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:18">
       <c r="B8" s="5">
         <v>1023</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>9.5</v>
       </c>
       <c r="H8" s="6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I8" s="6">
-        <v>9.5</v>
+        <v>300</v>
       </c>
       <c r="J8" s="6">
-        <v>300</v>
+        <v>0.5</v>
       </c>
       <c r="K8" s="6">
-        <v>300</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0.5</v>
+        <v>3</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="M8" s="6">
-        <v>3</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>10</v>
       </c>
       <c r="O8" s="6">
         <v>0</v>
@@ -2580,315 +2451,279 @@
       <c r="P8" s="6">
         <v>10</v>
       </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6">
-        <v>10</v>
-      </c>
-      <c r="S8" s="10">
-        <v>0</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>38</v>
+      <c r="Q8" s="10">
+        <v>0</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:18">
       <c r="B9" s="5">
         <v>1031</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1032</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2</v>
       </c>
       <c r="H9" s="6">
-        <v>1032</v>
+        <v>120</v>
       </c>
       <c r="I9" s="6">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="J9" s="6">
-        <v>120</v>
+        <v>0.8</v>
       </c>
       <c r="K9" s="6">
-        <v>60</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0.8</v>
+        <v>2.2</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="M9" s="6">
-        <v>2.2</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="N9" s="6">
+        <v>3</v>
       </c>
       <c r="O9" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" s="6">
         <v>3</v>
       </c>
-      <c r="Q9" s="6">
-        <v>0</v>
-      </c>
-      <c r="R9" s="6">
-        <v>3</v>
-      </c>
-      <c r="S9" s="10">
+      <c r="Q9" s="10">
         <v>1.2</v>
       </c>
-      <c r="T9" s="11" t="s">
-        <v>51</v>
+      <c r="R9" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:18">
       <c r="B10" s="5">
         <v>1032</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1033</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2.2</v>
       </c>
       <c r="H10" s="6">
-        <v>1033</v>
+        <v>240</v>
       </c>
       <c r="I10" s="6">
-        <v>2.2</v>
+        <v>180</v>
       </c>
       <c r="J10" s="6">
-        <v>240</v>
+        <v>0.65</v>
       </c>
       <c r="K10" s="6">
-        <v>180</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0.65</v>
+        <v>2.6</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="M10" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
+        <v>3</v>
       </c>
       <c r="O10" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P10" s="6">
         <v>3</v>
       </c>
-      <c r="Q10" s="6">
-        <v>0</v>
-      </c>
-      <c r="R10" s="6">
-        <v>3</v>
-      </c>
-      <c r="S10" s="10">
+      <c r="Q10" s="10">
         <v>1.5</v>
       </c>
-      <c r="T10" s="11" t="s">
-        <v>51</v>
+      <c r="R10" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:18">
       <c r="B11" s="5">
         <v>1033</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="H11" s="6">
+        <v>360</v>
+      </c>
+      <c r="I11" s="6">
+        <v>360</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="J11" s="6">
-        <v>360</v>
-      </c>
-      <c r="K11" s="6">
-        <v>360</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0.5</v>
-      </c>
       <c r="M11" s="6">
-        <v>3.2</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="N11" s="6">
+        <v>3</v>
       </c>
       <c r="O11" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P11" s="6">
         <v>3</v>
       </c>
-      <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="6">
-        <v>3</v>
-      </c>
-      <c r="S11" s="10">
+      <c r="Q11" s="10">
         <v>1.8</v>
       </c>
-      <c r="T11" s="11" t="s">
-        <v>51</v>
+      <c r="R11" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:18">
       <c r="B12" s="5">
         <v>1041</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1042</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="H12" s="6">
+        <v>120</v>
+      </c>
+      <c r="I12" s="6">
         <v>60</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1042</v>
-      </c>
-      <c r="I12" s="6">
-        <v>4.5</v>
-      </c>
       <c r="J12" s="6">
-        <v>120</v>
+        <v>0.6</v>
       </c>
       <c r="K12" s="6">
-        <v>60</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0.6</v>
+        <v>2.5</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="M12" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="N12" s="6">
+        <v>10</v>
       </c>
       <c r="O12" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P12" s="6">
         <v>10</v>
       </c>
-      <c r="Q12" s="6">
-        <v>0</v>
-      </c>
-      <c r="R12" s="6">
-        <v>10</v>
-      </c>
-      <c r="S12" s="10">
-        <v>0</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>64</v>
+      <c r="Q12" s="10">
+        <v>0</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:18">
       <c r="B13" s="5">
         <v>1042</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1043</v>
+      </c>
+      <c r="G13" s="6">
+        <v>5.5</v>
       </c>
       <c r="H13" s="6">
-        <v>1043</v>
+        <v>240</v>
       </c>
       <c r="I13" s="6">
-        <v>5.5</v>
+        <v>180</v>
       </c>
       <c r="J13" s="6">
-        <v>240</v>
+        <v>0.5</v>
       </c>
       <c r="K13" s="6">
-        <v>180</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0.5</v>
+        <v>3</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="M13" s="6">
-        <v>3</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>67</v>
+        <v>2</v>
+      </c>
+      <c r="N13" s="6">
+        <v>10</v>
       </c>
       <c r="O13" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P13" s="6">
         <v>10</v>
       </c>
-      <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="6">
-        <v>10</v>
-      </c>
-      <c r="S13" s="10">
-        <v>0</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>64</v>
+      <c r="Q13" s="10">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:18">
       <c r="B14" s="5">
         <v>1043</v>
       </c>
@@ -2896,96 +2731,90 @@
         <v>58</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>6.8</v>
       </c>
       <c r="H14" s="6">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I14" s="6">
-        <v>6.8</v>
+        <v>360</v>
       </c>
       <c r="J14" s="6">
-        <v>360</v>
+        <v>0.2</v>
       </c>
       <c r="K14" s="6">
-        <v>360</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0.2</v>
+        <v>3.5</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="M14" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
+      </c>
+      <c r="N14" s="6">
+        <v>10</v>
       </c>
       <c r="O14" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P14" s="6">
         <v>10</v>
       </c>
-      <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="6">
-        <v>10</v>
-      </c>
-      <c r="S14" s="10">
-        <v>0</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>64</v>
+      <c r="Q14" s="10">
+        <v>0</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:18">
       <c r="B15" s="5">
         <v>1051</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1052</v>
+      </c>
+      <c r="G15" s="6">
+        <v>9</v>
       </c>
       <c r="H15" s="6">
-        <v>1052</v>
+        <v>120</v>
       </c>
       <c r="I15" s="6">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="J15" s="6">
-        <v>120</v>
+        <v>0.8</v>
       </c>
       <c r="K15" s="6">
-        <v>60</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0.8</v>
+        <v>2.2</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="M15" s="6">
-        <v>2.2</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>76</v>
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>10</v>
       </c>
       <c r="O15" s="6">
         <v>0</v>
@@ -2993,58 +2822,52 @@
       <c r="P15" s="6">
         <v>10</v>
       </c>
-      <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6">
-        <v>10</v>
-      </c>
-      <c r="S15" s="10">
-        <v>0</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>77</v>
+      <c r="Q15" s="10">
+        <v>0</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:18">
       <c r="B16" s="5">
         <v>1052</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1053</v>
+      </c>
+      <c r="G16" s="6">
+        <v>10</v>
       </c>
       <c r="H16" s="6">
-        <v>1053</v>
+        <v>240</v>
       </c>
       <c r="I16" s="6">
+        <v>180</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="K16" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
         <v>10</v>
-      </c>
-      <c r="J16" s="6">
-        <v>240</v>
-      </c>
-      <c r="K16" s="6">
-        <v>180</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="M16" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="O16" s="6">
         <v>0</v>
@@ -3052,58 +2875,52 @@
       <c r="P16" s="6">
         <v>10</v>
       </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
-        <v>10</v>
-      </c>
-      <c r="S16" s="10">
-        <v>0</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>77</v>
+      <c r="Q16" s="10">
+        <v>0</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:18">
       <c r="B17" s="5">
         <v>1053</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6">
+        <v>360</v>
+      </c>
+      <c r="I17" s="6">
+        <v>360</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>12</v>
-      </c>
-      <c r="J17" s="6">
-        <v>360</v>
-      </c>
-      <c r="K17" s="6">
-        <v>360</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0.5</v>
-      </c>
       <c r="M17" s="6">
-        <v>3.2</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>83</v>
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>10</v>
       </c>
       <c r="O17" s="6">
         <v>0</v>
@@ -3111,58 +2928,52 @@
       <c r="P17" s="6">
         <v>10</v>
       </c>
-      <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-      <c r="R17" s="6">
-        <v>10</v>
-      </c>
-      <c r="S17" s="10">
-        <v>0</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>77</v>
+      <c r="Q17" s="10">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:18">
       <c r="B18" s="5">
         <v>1061</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>87</v>
+        <v>73</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1062</v>
+      </c>
+      <c r="G18" s="6">
+        <v>7</v>
       </c>
       <c r="H18" s="6">
-        <v>1062</v>
+        <v>120</v>
       </c>
       <c r="I18" s="6">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="J18" s="6">
-        <v>120</v>
+        <v>0.8</v>
       </c>
       <c r="K18" s="6">
-        <v>60</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0.8</v>
+        <v>2.4</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="M18" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>88</v>
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>8</v>
       </c>
       <c r="O18" s="6">
         <v>0</v>
@@ -3170,58 +2981,52 @@
       <c r="P18" s="6">
         <v>8</v>
       </c>
-      <c r="Q18" s="6">
-        <v>0</v>
-      </c>
-      <c r="R18" s="6">
-        <v>8</v>
-      </c>
-      <c r="S18" s="10">
+      <c r="Q18" s="10">
         <v>1.2</v>
       </c>
-      <c r="T18" s="11" t="s">
-        <v>89</v>
+      <c r="R18" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:18">
       <c r="B19" s="5">
         <v>1062</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>87</v>
+        <v>73</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1063</v>
+      </c>
+      <c r="G19" s="6">
+        <v>8</v>
       </c>
       <c r="H19" s="6">
-        <v>1063</v>
+        <v>240</v>
       </c>
       <c r="I19" s="6">
+        <v>180</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="K19" s="6">
+        <v>3</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
         <v>8</v>
-      </c>
-      <c r="J19" s="6">
-        <v>240</v>
-      </c>
-      <c r="K19" s="6">
-        <v>180</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="M19" s="6">
-        <v>3</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="O19" s="6">
         <v>0</v>
@@ -3229,58 +3034,52 @@
       <c r="P19" s="6">
         <v>8</v>
       </c>
-      <c r="Q19" s="6">
-        <v>0</v>
-      </c>
-      <c r="R19" s="6">
-        <v>8</v>
-      </c>
-      <c r="S19" s="10">
+      <c r="Q19" s="10">
         <v>1.4</v>
       </c>
-      <c r="T19" s="11" t="s">
-        <v>89</v>
+      <c r="R19" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:18">
       <c r="B20" s="5">
         <v>1063</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>87</v>
+        <v>73</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>10</v>
       </c>
       <c r="H20" s="6">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I20" s="6">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="J20" s="6">
-        <v>360</v>
+        <v>0.55</v>
       </c>
       <c r="K20" s="6">
-        <v>360</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0.55</v>
+        <v>3.6</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="M20" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>93</v>
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>8</v>
       </c>
       <c r="O20" s="6">
         <v>0</v>
@@ -3288,231 +3087,207 @@
       <c r="P20" s="6">
         <v>8</v>
       </c>
-      <c r="Q20" s="6">
-        <v>0</v>
-      </c>
-      <c r="R20" s="6">
-        <v>8</v>
-      </c>
-      <c r="S20" s="10">
+      <c r="Q20" s="10">
         <v>1.8</v>
       </c>
-      <c r="T20" s="11" t="s">
-        <v>89</v>
+      <c r="R20" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:18">
       <c r="B21" s="5">
         <v>1071</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1072</v>
+      </c>
+      <c r="G21" s="6">
+        <v>10</v>
       </c>
       <c r="H21" s="6">
-        <v>1072</v>
+        <v>160</v>
       </c>
       <c r="I21" s="6">
+        <v>80</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="K21" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21" s="6">
+        <v>3</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>20</v>
+      </c>
+      <c r="P21" s="6">
         <v>10</v>
       </c>
-      <c r="J21" s="6">
-        <v>160</v>
-      </c>
-      <c r="K21" s="6">
-        <v>80</v>
-      </c>
-      <c r="L21" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="M21" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="O21" s="6">
-        <v>5</v>
-      </c>
-      <c r="P21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>20</v>
-      </c>
-      <c r="R21" s="6">
-        <v>10</v>
-      </c>
-      <c r="S21" s="10">
+      <c r="Q21" s="10">
         <v>1.5</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>100</v>
+      <c r="R21" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:18">
       <c r="B22" s="5">
         <v>1072</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1073</v>
+      </c>
+      <c r="G22" s="6">
+        <v>12</v>
       </c>
       <c r="H22" s="6">
-        <v>1073</v>
+        <v>320</v>
       </c>
       <c r="I22" s="6">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="J22" s="6">
-        <v>320</v>
+        <v>1</v>
       </c>
       <c r="K22" s="6">
-        <v>240</v>
-      </c>
-      <c r="L22" s="6">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="M22" s="6">
         <v>3</v>
       </c>
-      <c r="N22" s="6" t="s">
-        <v>103</v>
+      <c r="N22" s="6">
+        <v>0</v>
       </c>
       <c r="O22" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>20</v>
-      </c>
-      <c r="R22" s="6">
         <v>10</v>
       </c>
-      <c r="S22" s="10">
+      <c r="Q22" s="10">
         <v>2</v>
       </c>
-      <c r="T22" s="11" t="s">
-        <v>100</v>
+      <c r="R22" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" ht="14.25" spans="2:18">
       <c r="B23" s="7">
         <v>1073</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>94</v>
+      <c r="C23" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>14</v>
       </c>
       <c r="H23" s="8">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="I23" s="8">
-        <v>14</v>
+        <v>480</v>
       </c>
       <c r="J23" s="8">
-        <v>480</v>
+        <v>0.8</v>
       </c>
       <c r="K23" s="8">
-        <v>480</v>
-      </c>
-      <c r="L23" s="8">
-        <v>0.8</v>
+        <v>3.5</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="M23" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>106</v>
+        <v>3</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
       </c>
       <c r="O23" s="8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P23" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>20</v>
-      </c>
-      <c r="R23" s="8">
         <v>10</v>
       </c>
-      <c r="S23" s="12">
+      <c r="Q23" s="12">
         <v>2.5</v>
       </c>
-      <c r="T23" s="13" t="s">
-        <v>100</v>
+      <c r="R23" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="24" spans="13:15">
+    <row r="24" spans="11:13">
+      <c r="K24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="13:15">
+    <row r="25" spans="11:13">
+      <c r="K25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="13:15">
+    <row r="26" spans="11:13">
+      <c r="K26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="13:15">
+    <row r="27" spans="11:13">
+      <c r="K27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="13:15">
+    <row r="28" spans="11:13">
+      <c r="K28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="13:15">
+    <row r="29" spans="11:13">
+      <c r="K29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="13:15">
+    <row r="30" spans="11:13">
+      <c r="K30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="13:15">
+    <row r="31" spans="11:13">
+      <c r="K31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="13:15">
+    <row r="32" spans="11:13">
+      <c r="K32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="O32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/tmp/cry/data/WeaponData_new.xlsx
+++ b/tmp/cry/data/WeaponData_new.xlsx
@@ -356,7 +356,51 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="1">
+    <comment ref="R2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>daya:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+子弹范围攻击的加成，为原始攻击的百分比</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>daya:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+子弹攻击特效的加成，为原始概率的百分比</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -383,7 +427,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -431,6 +475,12 @@
   </si>
   <si>
     <t>bulletRadius</t>
+  </si>
+  <si>
+    <t>bulletAttExt</t>
+  </si>
+  <si>
+    <t>bulletEffExt</t>
   </si>
   <si>
     <t>sound</t>
@@ -677,6 +727,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -692,6 +764,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -701,15 +795,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,36 +833,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,23 +863,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,7 +891,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,67 +1011,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,13 +1029,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,85 +1065,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,9 +1167,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,6 +1211,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,60 +1262,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1230,137 +1280,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1386,8 +1436,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2058,12 +2114,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O13" sqref="O13"/>
+      <selection pane="topRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2082,12 +2138,12 @@
     <col min="13" max="13" width="15.5" customWidth="1"/>
     <col min="14" max="14" width="13.5" customWidth="1"/>
     <col min="15" max="16" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="15.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="17" max="19" width="15.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25"/>
-    <row r="2" ht="57" customHeight="1" spans="2:18">
+    <row r="2" ht="57" customHeight="1" spans="2:20">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2139,19 +2195,25 @@
       <c r="R2" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="S2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:20">
       <c r="B3" s="5">
         <v>1011</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="6">
         <v>1012</v>
@@ -2172,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
@@ -2186,25 +2248,31 @@
       <c r="P3" s="6">
         <v>10</v>
       </c>
-      <c r="Q3" s="10">
-        <v>0</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>21</v>
+      <c r="Q3" s="11">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0</v>
+      </c>
+      <c r="S3" s="12">
+        <v>0</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:20">
       <c r="B4" s="5">
         <v>1012</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="6">
         <v>1013</v>
@@ -2225,7 +2293,7 @@
         <v>2.5</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M4" s="6">
         <v>0</v>
@@ -2239,25 +2307,31 @@
       <c r="P4" s="6">
         <v>10</v>
       </c>
-      <c r="Q4" s="10">
-        <v>0</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>21</v>
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12">
+        <v>0</v>
+      </c>
+      <c r="S4" s="12">
+        <v>0</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:20">
       <c r="B5" s="5">
         <v>1013</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -2278,7 +2352,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M5" s="6">
         <v>0</v>
@@ -2292,25 +2366,31 @@
       <c r="P5" s="6">
         <v>10</v>
       </c>
-      <c r="Q5" s="10">
-        <v>0</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>21</v>
+      <c r="Q5" s="11">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12">
+        <v>0</v>
+      </c>
+      <c r="S5" s="12">
+        <v>0</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:20">
       <c r="B6" s="5">
         <v>1021</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="6">
         <v>1022</v>
@@ -2331,7 +2411,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M6" s="6">
         <v>0</v>
@@ -2345,25 +2425,31 @@
       <c r="P6" s="6">
         <v>10</v>
       </c>
-      <c r="Q6" s="10">
-        <v>0</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>32</v>
+      <c r="Q6" s="11">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12">
+        <v>0</v>
+      </c>
+      <c r="S6" s="12">
+        <v>0</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:20">
       <c r="B7" s="5">
         <v>1022</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="6">
         <v>1023</v>
@@ -2384,7 +2470,7 @@
         <v>2.5</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="6">
         <v>0</v>
@@ -2398,25 +2484,31 @@
       <c r="P7" s="6">
         <v>10</v>
       </c>
-      <c r="Q7" s="10">
-        <v>0</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>32</v>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0</v>
+      </c>
+      <c r="S7" s="12">
+        <v>0</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:20">
       <c r="B8" s="5">
         <v>1023</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -2437,7 +2529,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M8" s="6">
         <v>0</v>
@@ -2451,25 +2543,31 @@
       <c r="P8" s="6">
         <v>10</v>
       </c>
-      <c r="Q8" s="10">
-        <v>0</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>32</v>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:20">
       <c r="B9" s="5">
         <v>1031</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F9" s="6">
         <v>1032</v>
@@ -2484,19 +2582,19 @@
         <v>60</v>
       </c>
       <c r="J9" s="6">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="K9" s="6">
         <v>2.2</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M9" s="6">
         <v>1</v>
       </c>
       <c r="N9" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9" s="6">
         <v>0</v>
@@ -2504,25 +2602,31 @@
       <c r="P9" s="6">
         <v>3</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="11">
         <v>1.2</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>43</v>
+      <c r="R9" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="S9" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:20">
       <c r="B10" s="5">
         <v>1032</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F10" s="6">
         <v>1033</v>
@@ -2537,19 +2641,19 @@
         <v>180</v>
       </c>
       <c r="J10" s="6">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="K10" s="6">
         <v>2.6</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M10" s="6">
         <v>1</v>
       </c>
       <c r="N10" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O10" s="6">
         <v>0</v>
@@ -2557,25 +2661,31 @@
       <c r="P10" s="6">
         <v>3</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="11">
         <v>1.5</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>43</v>
+      <c r="R10" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:20">
       <c r="B11" s="5">
         <v>1033</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -2590,19 +2700,19 @@
         <v>360</v>
       </c>
       <c r="J11" s="6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K11" s="6">
         <v>3.2</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M11" s="6">
         <v>1</v>
       </c>
       <c r="N11" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" s="6">
         <v>0</v>
@@ -2610,25 +2720,31 @@
       <c r="P11" s="6">
         <v>3</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="11">
         <v>1.8</v>
       </c>
-      <c r="R11" s="11" t="s">
-        <v>43</v>
+      <c r="R11" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="S11" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="T11" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:20">
       <c r="B12" s="5">
         <v>1041</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F12" s="6">
         <v>1042</v>
@@ -2649,7 +2765,7 @@
         <v>2.5</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M12" s="6">
         <v>2</v>
@@ -2663,25 +2779,31 @@
       <c r="P12" s="6">
         <v>10</v>
       </c>
-      <c r="Q12" s="10">
-        <v>0</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>54</v>
+      <c r="Q12" s="11">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:20">
       <c r="B13" s="5">
         <v>1042</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F13" s="6">
         <v>1043</v>
@@ -2702,7 +2824,7 @@
         <v>3</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M13" s="6">
         <v>2</v>
@@ -2716,25 +2838,31 @@
       <c r="P13" s="6">
         <v>10</v>
       </c>
-      <c r="Q13" s="10">
-        <v>0</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>54</v>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:20">
       <c r="B14" s="5">
         <v>1043</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -2755,7 +2883,7 @@
         <v>3.5</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M14" s="6">
         <v>2</v>
@@ -2769,25 +2897,31 @@
       <c r="P14" s="6">
         <v>10</v>
       </c>
-      <c r="Q14" s="10">
-        <v>0</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>54</v>
+      <c r="Q14" s="11">
+        <v>0</v>
+      </c>
+      <c r="R14" s="12">
+        <v>0</v>
+      </c>
+      <c r="S14" s="12">
+        <v>0</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:20">
       <c r="B15" s="5">
         <v>1051</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F15" s="6">
         <v>1052</v>
@@ -2808,7 +2942,7 @@
         <v>2.2</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M15" s="6">
         <v>0</v>
@@ -2822,25 +2956,31 @@
       <c r="P15" s="6">
         <v>10</v>
       </c>
-      <c r="Q15" s="10">
-        <v>0</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>65</v>
+      <c r="Q15" s="11">
+        <v>0</v>
+      </c>
+      <c r="R15" s="12">
+        <v>0</v>
+      </c>
+      <c r="S15" s="12">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:20">
       <c r="B16" s="5">
         <v>1052</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F16" s="6">
         <v>1053</v>
@@ -2861,7 +3001,7 @@
         <v>2.6</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M16" s="6">
         <v>0</v>
@@ -2875,25 +3015,31 @@
       <c r="P16" s="6">
         <v>10</v>
       </c>
-      <c r="Q16" s="10">
-        <v>0</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>65</v>
+      <c r="Q16" s="11">
+        <v>0</v>
+      </c>
+      <c r="R16" s="12">
+        <v>0</v>
+      </c>
+      <c r="S16" s="12">
+        <v>0</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:20">
       <c r="B17" s="5">
         <v>1053</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -2914,7 +3060,7 @@
         <v>3.2</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M17" s="6">
         <v>0</v>
@@ -2928,25 +3074,31 @@
       <c r="P17" s="6">
         <v>10</v>
       </c>
-      <c r="Q17" s="10">
-        <v>0</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>65</v>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="12">
+        <v>0</v>
+      </c>
+      <c r="S17" s="12">
+        <v>0</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:20">
       <c r="B18" s="5">
         <v>1061</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F18" s="6">
         <v>1062</v>
@@ -2967,7 +3119,7 @@
         <v>2.4</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M18" s="6">
         <v>0</v>
@@ -2981,25 +3133,31 @@
       <c r="P18" s="6">
         <v>8</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="11">
         <v>1.2</v>
       </c>
-      <c r="R18" s="11" t="s">
-        <v>75</v>
+      <c r="R18" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="S18" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:20">
       <c r="B19" s="5">
         <v>1062</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F19" s="6">
         <v>1063</v>
@@ -3020,7 +3178,7 @@
         <v>3</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M19" s="6">
         <v>0</v>
@@ -3034,25 +3192,31 @@
       <c r="P19" s="6">
         <v>8</v>
       </c>
-      <c r="Q19" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>75</v>
+      <c r="Q19" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="R19" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="S19" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:20">
       <c r="B20" s="5">
         <v>1063</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
@@ -3073,7 +3237,7 @@
         <v>3.6</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M20" s="6">
         <v>0</v>
@@ -3087,25 +3251,31 @@
       <c r="P20" s="6">
         <v>8</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="11">
         <v>1.8</v>
       </c>
-      <c r="R20" s="11" t="s">
-        <v>75</v>
+      <c r="R20" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="S20" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:20">
       <c r="B21" s="5">
         <v>1071</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F21" s="6">
         <v>1072</v>
@@ -3126,7 +3296,7 @@
         <v>2.5</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M21" s="6">
         <v>3</v>
@@ -3140,25 +3310,31 @@
       <c r="P21" s="6">
         <v>10</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="11">
         <v>1.5</v>
       </c>
-      <c r="R21" s="11" t="s">
-        <v>84</v>
+      <c r="R21" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="S21" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="T21" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:20">
       <c r="B22" s="5">
         <v>1072</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F22" s="6">
         <v>1073</v>
@@ -3179,7 +3355,7 @@
         <v>3</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M22" s="6">
         <v>3</v>
@@ -3193,25 +3369,31 @@
       <c r="P22" s="6">
         <v>10</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="11">
         <v>2</v>
       </c>
-      <c r="R22" s="11" t="s">
-        <v>84</v>
+      <c r="R22" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="S22" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="2:18">
+    <row r="23" ht="14.25" spans="2:20">
       <c r="B23" s="7">
         <v>1073</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F23" s="8">
         <v>0</v>
@@ -3232,7 +3414,7 @@
         <v>3.5</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M23" s="8">
         <v>3</v>
@@ -3246,11 +3428,17 @@
       <c r="P23" s="8">
         <v>10</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="14">
         <v>2.5</v>
       </c>
-      <c r="R23" s="13" t="s">
-        <v>84</v>
+      <c r="R23" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="S23" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="11:13">

--- a/tmp/cry/data/WeaponData_new.xlsx
+++ b/tmp/cry/data/WeaponData_new.xlsx
@@ -498,7 +498,7 @@
     <t>bulletEffect011</t>
   </si>
   <si>
-    <t>bullet1.mp3</t>
+    <t>bullet1</t>
   </si>
   <si>
     <t>weapon12</t>
@@ -531,7 +531,7 @@
     <t>bulletEffect021</t>
   </si>
   <si>
-    <t>bullet2.mp3</t>
+    <t>bullet2</t>
   </si>
   <si>
     <t>weapon22</t>
@@ -564,7 +564,7 @@
     <t>bulletEffect031</t>
   </si>
   <si>
-    <t>bullet3.mp3</t>
+    <t>bullet3</t>
   </si>
   <si>
     <t>weapon32</t>
@@ -597,7 +597,7 @@
     <t>bulletEffect041</t>
   </si>
   <si>
-    <t>bullet4.mp3</t>
+    <t>bullet4</t>
   </si>
   <si>
     <t>weapon42</t>
@@ -630,7 +630,7 @@
     <t>bulletEffect051</t>
   </si>
   <si>
-    <t>bullet5.mp3</t>
+    <t>bullet5</t>
   </si>
   <si>
     <t>weapon52</t>
@@ -660,7 +660,7 @@
     <t>bulletEffect061</t>
   </si>
   <si>
-    <t>bullet6.mp3</t>
+    <t>bullet6</t>
   </si>
   <si>
     <t>weapon62</t>
@@ -687,7 +687,7 @@
     <t>bulletEffect071</t>
   </si>
   <si>
-    <t>bullet7.mp3</t>
+    <t>bullet7</t>
   </si>
   <si>
     <t>weapon72</t>
@@ -714,9 +714,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -724,13 +724,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -743,22 +736,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,38 +756,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,6 +795,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -855,11 +818,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -891,6 +891,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -903,13 +939,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +957,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,13 +993,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,13 +1005,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,103 +1065,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,22 +1165,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1200,17 +1195,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,22 +1217,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,10 +1268,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1280,137 +1280,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1436,14 +1436,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2119,7 +2113,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Q23" sqref="Q23"/>
+      <selection pane="topRight" activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2192,13 +2186,13 @@
       <c r="Q2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2248,16 +2242,16 @@
       <c r="P3" s="6">
         <v>10</v>
       </c>
-      <c r="Q3" s="11">
-        <v>0</v>
-      </c>
-      <c r="R3" s="12">
-        <v>0</v>
-      </c>
-      <c r="S3" s="12">
-        <v>0</v>
-      </c>
-      <c r="T3" s="13" t="s">
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="10">
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
+        <v>0</v>
+      </c>
+      <c r="T3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2307,16 +2301,16 @@
       <c r="P4" s="6">
         <v>10</v>
       </c>
-      <c r="Q4" s="11">
-        <v>0</v>
-      </c>
-      <c r="R4" s="12">
-        <v>0</v>
-      </c>
-      <c r="S4" s="12">
-        <v>0</v>
-      </c>
-      <c r="T4" s="13" t="s">
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
+      <c r="R4" s="10">
+        <v>0</v>
+      </c>
+      <c r="S4" s="10">
+        <v>0</v>
+      </c>
+      <c r="T4" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2366,16 +2360,16 @@
       <c r="P5" s="6">
         <v>10</v>
       </c>
-      <c r="Q5" s="11">
-        <v>0</v>
-      </c>
-      <c r="R5" s="12">
-        <v>0</v>
-      </c>
-      <c r="S5" s="12">
-        <v>0</v>
-      </c>
-      <c r="T5" s="13" t="s">
+      <c r="Q5" s="10">
+        <v>0</v>
+      </c>
+      <c r="R5" s="10">
+        <v>0</v>
+      </c>
+      <c r="S5" s="10">
+        <v>0</v>
+      </c>
+      <c r="T5" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2425,16 +2419,16 @@
       <c r="P6" s="6">
         <v>10</v>
       </c>
-      <c r="Q6" s="11">
-        <v>0</v>
-      </c>
-      <c r="R6" s="12">
-        <v>0</v>
-      </c>
-      <c r="S6" s="12">
-        <v>0</v>
-      </c>
-      <c r="T6" s="13" t="s">
+      <c r="Q6" s="10">
+        <v>0</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0</v>
+      </c>
+      <c r="T6" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2484,16 +2478,16 @@
       <c r="P7" s="6">
         <v>10</v>
       </c>
-      <c r="Q7" s="11">
-        <v>0</v>
-      </c>
-      <c r="R7" s="12">
-        <v>0</v>
-      </c>
-      <c r="S7" s="12">
-        <v>0</v>
-      </c>
-      <c r="T7" s="13" t="s">
+      <c r="Q7" s="10">
+        <v>0</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0</v>
+      </c>
+      <c r="S7" s="10">
+        <v>0</v>
+      </c>
+      <c r="T7" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2543,16 +2537,16 @@
       <c r="P8" s="6">
         <v>10</v>
       </c>
-      <c r="Q8" s="11">
-        <v>0</v>
-      </c>
-      <c r="R8" s="12">
-        <v>0</v>
-      </c>
-      <c r="S8" s="12">
-        <v>0</v>
-      </c>
-      <c r="T8" s="13" t="s">
+      <c r="Q8" s="10">
+        <v>0</v>
+      </c>
+      <c r="R8" s="10">
+        <v>0</v>
+      </c>
+      <c r="S8" s="10">
+        <v>0</v>
+      </c>
+      <c r="T8" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2602,16 +2596,16 @@
       <c r="P9" s="6">
         <v>3</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <v>1.2</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="10">
         <v>0.5</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="10">
         <v>0.12</v>
       </c>
-      <c r="T9" s="13" t="s">
+      <c r="T9" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2661,16 +2655,16 @@
       <c r="P10" s="6">
         <v>3</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="10">
         <v>1.5</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="10">
         <v>0.6</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="10">
         <v>0.18</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="T10" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2720,16 +2714,16 @@
       <c r="P11" s="6">
         <v>3</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="10">
         <v>1.8</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="10">
         <v>0.7</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="10">
         <v>0.25</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="T11" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2779,16 +2773,16 @@
       <c r="P12" s="6">
         <v>10</v>
       </c>
-      <c r="Q12" s="11">
-        <v>0</v>
-      </c>
-      <c r="R12" s="12">
-        <v>0</v>
-      </c>
-      <c r="S12" s="12">
-        <v>0</v>
-      </c>
-      <c r="T12" s="13" t="s">
+      <c r="Q12" s="10">
+        <v>0</v>
+      </c>
+      <c r="R12" s="10">
+        <v>0</v>
+      </c>
+      <c r="S12" s="10">
+        <v>0</v>
+      </c>
+      <c r="T12" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2838,16 +2832,16 @@
       <c r="P13" s="6">
         <v>10</v>
       </c>
-      <c r="Q13" s="11">
-        <v>0</v>
-      </c>
-      <c r="R13" s="12">
-        <v>0</v>
-      </c>
-      <c r="S13" s="12">
-        <v>0</v>
-      </c>
-      <c r="T13" s="13" t="s">
+      <c r="Q13" s="10">
+        <v>0</v>
+      </c>
+      <c r="R13" s="10">
+        <v>0</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2897,16 +2891,16 @@
       <c r="P14" s="6">
         <v>10</v>
       </c>
-      <c r="Q14" s="11">
-        <v>0</v>
-      </c>
-      <c r="R14" s="12">
-        <v>0</v>
-      </c>
-      <c r="S14" s="12">
-        <v>0</v>
-      </c>
-      <c r="T14" s="13" t="s">
+      <c r="Q14" s="10">
+        <v>0</v>
+      </c>
+      <c r="R14" s="10">
+        <v>0</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0</v>
+      </c>
+      <c r="T14" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2956,16 +2950,16 @@
       <c r="P15" s="6">
         <v>10</v>
       </c>
-      <c r="Q15" s="11">
-        <v>0</v>
-      </c>
-      <c r="R15" s="12">
-        <v>0</v>
-      </c>
-      <c r="S15" s="12">
-        <v>0</v>
-      </c>
-      <c r="T15" s="13" t="s">
+      <c r="Q15" s="10">
+        <v>0</v>
+      </c>
+      <c r="R15" s="10">
+        <v>0</v>
+      </c>
+      <c r="S15" s="10">
+        <v>0</v>
+      </c>
+      <c r="T15" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3015,16 +3009,16 @@
       <c r="P16" s="6">
         <v>10</v>
       </c>
-      <c r="Q16" s="11">
-        <v>0</v>
-      </c>
-      <c r="R16" s="12">
-        <v>0</v>
-      </c>
-      <c r="S16" s="12">
-        <v>0</v>
-      </c>
-      <c r="T16" s="13" t="s">
+      <c r="Q16" s="10">
+        <v>0</v>
+      </c>
+      <c r="R16" s="10">
+        <v>0</v>
+      </c>
+      <c r="S16" s="10">
+        <v>0</v>
+      </c>
+      <c r="T16" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3074,16 +3068,16 @@
       <c r="P17" s="6">
         <v>10</v>
       </c>
-      <c r="Q17" s="11">
-        <v>0</v>
-      </c>
-      <c r="R17" s="12">
-        <v>0</v>
-      </c>
-      <c r="S17" s="12">
-        <v>0</v>
-      </c>
-      <c r="T17" s="13" t="s">
+      <c r="Q17" s="10">
+        <v>0</v>
+      </c>
+      <c r="R17" s="10">
+        <v>0</v>
+      </c>
+      <c r="S17" s="10">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3133,16 +3127,16 @@
       <c r="P18" s="6">
         <v>8</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="10">
         <v>1.2</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="10">
         <v>0.5</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18" s="10">
         <v>0.3</v>
       </c>
-      <c r="T18" s="13" t="s">
+      <c r="T18" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3192,16 +3186,16 @@
       <c r="P19" s="6">
         <v>8</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="10">
         <v>1.5</v>
       </c>
-      <c r="R19" s="12">
+      <c r="R19" s="10">
         <v>0.6</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="10">
         <v>0.35</v>
       </c>
-      <c r="T19" s="13" t="s">
+      <c r="T19" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3251,16 +3245,16 @@
       <c r="P20" s="6">
         <v>8</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="10">
         <v>1.8</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="10">
         <v>0.7</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="10">
         <v>0.4</v>
       </c>
-      <c r="T20" s="13" t="s">
+      <c r="T20" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3310,16 +3304,16 @@
       <c r="P21" s="6">
         <v>10</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="10">
         <v>1.5</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="10">
         <v>0.7</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21" s="10">
         <v>0.4</v>
       </c>
-      <c r="T21" s="13" t="s">
+      <c r="T21" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3369,20 +3363,20 @@
       <c r="P22" s="6">
         <v>10</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="10">
         <v>2</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="10">
         <v>0.8</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="10">
         <v>0.5</v>
       </c>
-      <c r="T22" s="13" t="s">
+      <c r="T22" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="2:20">
+    <row r="23" spans="2:20">
       <c r="B23" s="7">
         <v>1073</v>
       </c>
@@ -3428,16 +3422,16 @@
       <c r="P23" s="8">
         <v>10</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q23" s="12">
         <v>2.5</v>
       </c>
-      <c r="R23" s="12">
+      <c r="R23" s="10">
         <v>0.9</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23" s="10">
         <v>0.6</v>
       </c>
-      <c r="T23" s="15" t="s">
+      <c r="T23" s="13" t="s">
         <v>86</v>
       </c>
     </row>
